--- a/ブログ更新・削除_単体テスト.xlsx
+++ b/ブログ更新・削除_単体テスト.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/kadai/tanntaitest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="241" documentId="13_ncr:1_{A79FEBA2-56B8-4B68-A8E8-7A4AD747AB6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA214836-7F8A-4381-B5C4-1A8997F4577E}"/>
+  <xr:revisionPtr revIDLastSave="246" documentId="13_ncr:1_{A79FEBA2-56B8-4B68-A8E8-7A4AD747AB6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F3CE3559-E683-4927-9555-9803F592002C}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{B462155A-29E6-4E7A-8661-60DC22FDF8EA}"/>
+    <workbookView xWindow="4740" yWindow="2990" windowWidth="16920" windowHeight="10340" xr2:uid="{B462155A-29E6-4E7A-8661-60DC22FDF8EA}"/>
   </bookViews>
   <sheets>
     <sheet name="ブログ更新画面" sheetId="5" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="167">
   <si>
     <t>項目番号</t>
     <rPh sb="0" eb="2">
@@ -1960,6 +1960,26 @@
     <rPh sb="9" eb="11">
       <t>ジョウタイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録されている「内容」の文字数を表示</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>モジスウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○○/500</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2072,10 +2092,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3685,10 +3705,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74A1A857-B7E4-4351-AD44-8F6DAF254401}">
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:XFD33"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -3705,7 +3725,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>39</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -3716,7 +3736,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="6"/>
+      <c r="A2" s="7"/>
       <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
@@ -3725,7 +3745,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="6"/>
+      <c r="A3" s="7"/>
       <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
@@ -3734,7 +3754,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="6"/>
+      <c r="A4" s="7"/>
       <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
@@ -4206,10 +4226,10 @@
         <v>122</v>
       </c>
       <c r="G30" s="4">
-        <v>45992</v>
+        <v>45998</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I30" s="2"/>
     </row>
@@ -4281,7 +4301,7 @@
       <c r="F34" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="G34" s="7">
+      <c r="G34" s="6">
         <v>45992</v>
       </c>
       <c r="H34" s="2" t="s">
@@ -4301,6 +4321,44 @@
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="2">
+        <v>15</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G36" s="4">
+        <v>45992</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I36" s="2"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4336,7 +4394,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>39</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -4347,7 +4405,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="6"/>
+      <c r="A2" s="7"/>
       <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
@@ -4356,7 +4414,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="6"/>
+      <c r="A3" s="7"/>
       <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
@@ -4365,7 +4423,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="6"/>
+      <c r="A4" s="7"/>
       <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
@@ -5355,8 +5413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BB2A5A5-6081-45A6-AF3A-1B25C5A8823E}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="E10" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -5373,7 +5431,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>39</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -5384,7 +5442,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="6"/>
+      <c r="A2" s="7"/>
       <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
@@ -5393,7 +5451,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="6"/>
+      <c r="A3" s="7"/>
       <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
@@ -5402,7 +5460,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="6"/>
+      <c r="A4" s="7"/>
       <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
@@ -5757,10 +5815,10 @@
         <v>122</v>
       </c>
       <c r="G25" s="4">
-        <v>45992</v>
+        <v>45998</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I25" s="2"/>
     </row>
@@ -5881,8 +5939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB39F5B-1FA5-42C8-949E-8DCEC752D35D}">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="E1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -5899,7 +5957,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>39</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -5910,7 +5968,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="6"/>
+      <c r="A2" s="7"/>
       <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
@@ -5919,7 +5977,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="6"/>
+      <c r="A3" s="7"/>
       <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
@@ -5928,7 +5986,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="6"/>
+      <c r="A4" s="7"/>
       <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
@@ -6216,10 +6274,10 @@
         <v>122</v>
       </c>
       <c r="G20" s="4">
-        <v>45992</v>
+        <v>45998</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I20" s="2"/>
     </row>
@@ -6309,7 +6367,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>39</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -6320,7 +6378,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="6"/>
+      <c r="A2" s="7"/>
       <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
@@ -6329,7 +6387,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="6"/>
+      <c r="A3" s="7"/>
       <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
@@ -6338,7 +6396,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="6"/>
+      <c r="A4" s="7"/>
       <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
@@ -6700,8 +6758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55B9A8E5-C2A7-4B04-BCDA-0A5EB24D8FBF}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView zoomScale="66" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="E1" zoomScale="66" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -6718,7 +6776,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>39</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -6729,7 +6787,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="6"/>
+      <c r="A2" s="7"/>
       <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
@@ -6738,7 +6796,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="6"/>
+      <c r="A3" s="7"/>
       <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
@@ -6747,7 +6805,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="6"/>
+      <c r="A4" s="7"/>
       <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
@@ -6960,10 +7018,10 @@
         <v>122</v>
       </c>
       <c r="G18" s="4">
-        <v>45992</v>
+        <v>45998</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I18" s="2"/>
     </row>
